--- a/cypress/integration/examples/ExcelInteraction/ExcelFiles/ReadFile.xlsx
+++ b/cypress/integration/examples/ExcelInteraction/ExcelFiles/ReadFile.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Class</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
     <t>Rohit</t>
   </si>
   <si>
@@ -54,6 +51,75 @@
   </si>
   <si>
     <t>Sonu</t>
+  </si>
+  <si>
+    <t>Age1</t>
+  </si>
+  <si>
+    <t>Age2</t>
+  </si>
+  <si>
+    <t>Age3</t>
+  </si>
+  <si>
+    <t>Age4</t>
+  </si>
+  <si>
+    <t>Age5</t>
+  </si>
+  <si>
+    <t>Age6</t>
+  </si>
+  <si>
+    <t>Age7</t>
+  </si>
+  <si>
+    <t>Age8</t>
+  </si>
+  <si>
+    <t>Age9</t>
+  </si>
+  <si>
+    <t>Age10</t>
+  </si>
+  <si>
+    <t>Age11</t>
+  </si>
+  <si>
+    <t>Age12</t>
+  </si>
+  <si>
+    <t>Age13</t>
+  </si>
+  <si>
+    <t>Age14</t>
+  </si>
+  <si>
+    <t>Age15</t>
+  </si>
+  <si>
+    <t>Age16</t>
+  </si>
+  <si>
+    <t>Age17</t>
+  </si>
+  <si>
+    <t>Age18</t>
+  </si>
+  <si>
+    <t>Age19</t>
+  </si>
+  <si>
+    <t>Age20</t>
+  </si>
+  <si>
+    <t>Age21</t>
+  </si>
+  <si>
+    <t>Age22</t>
+  </si>
+  <si>
+    <t>Age23</t>
   </si>
 </sst>
 </file>
@@ -371,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,15 +459,81 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -412,13 +544,79 @@
       <c r="E2">
         <v>11</v>
       </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>11</v>
+      </c>
+      <c r="O2">
+        <v>11</v>
+      </c>
+      <c r="P2">
+        <v>11</v>
+      </c>
+      <c r="Q2">
+        <v>11</v>
+      </c>
+      <c r="R2">
+        <v>11</v>
+      </c>
+      <c r="S2">
+        <v>11</v>
+      </c>
+      <c r="T2">
+        <v>11</v>
+      </c>
+      <c r="U2">
+        <v>11</v>
+      </c>
+      <c r="V2">
+        <v>11</v>
+      </c>
+      <c r="W2">
+        <v>11</v>
+      </c>
+      <c r="X2">
+        <v>11</v>
+      </c>
+      <c r="Y2">
+        <v>11</v>
+      </c>
+      <c r="Z2">
+        <v>11</v>
+      </c>
+      <c r="AA2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -429,13 +627,79 @@
       <c r="E3">
         <v>10</v>
       </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>10</v>
+      </c>
+      <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <v>10</v>
+      </c>
+      <c r="Z3">
+        <v>10</v>
+      </c>
+      <c r="AA3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>21</v>
@@ -446,13 +710,79 @@
       <c r="E4">
         <v>13</v>
       </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>13</v>
+      </c>
+      <c r="L4">
+        <v>13</v>
+      </c>
+      <c r="M4">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <v>13</v>
+      </c>
+      <c r="O4">
+        <v>13</v>
+      </c>
+      <c r="P4">
+        <v>13</v>
+      </c>
+      <c r="Q4">
+        <v>13</v>
+      </c>
+      <c r="R4">
+        <v>13</v>
+      </c>
+      <c r="S4">
+        <v>13</v>
+      </c>
+      <c r="T4">
+        <v>13</v>
+      </c>
+      <c r="U4">
+        <v>13</v>
+      </c>
+      <c r="V4">
+        <v>13</v>
+      </c>
+      <c r="W4">
+        <v>13</v>
+      </c>
+      <c r="X4">
+        <v>13</v>
+      </c>
+      <c r="Y4">
+        <v>13</v>
+      </c>
+      <c r="Z4">
+        <v>13</v>
+      </c>
+      <c r="AA4">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>33</v>
@@ -463,13 +793,79 @@
       <c r="E5">
         <v>14</v>
       </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>14</v>
+      </c>
+      <c r="L5">
+        <v>14</v>
+      </c>
+      <c r="M5">
+        <v>14</v>
+      </c>
+      <c r="N5">
+        <v>14</v>
+      </c>
+      <c r="O5">
+        <v>14</v>
+      </c>
+      <c r="P5">
+        <v>14</v>
+      </c>
+      <c r="Q5">
+        <v>14</v>
+      </c>
+      <c r="R5">
+        <v>14</v>
+      </c>
+      <c r="S5">
+        <v>14</v>
+      </c>
+      <c r="T5">
+        <v>14</v>
+      </c>
+      <c r="U5">
+        <v>14</v>
+      </c>
+      <c r="V5">
+        <v>14</v>
+      </c>
+      <c r="W5">
+        <v>14</v>
+      </c>
+      <c r="X5">
+        <v>14</v>
+      </c>
+      <c r="Y5">
+        <v>14</v>
+      </c>
+      <c r="Z5">
+        <v>14</v>
+      </c>
+      <c r="AA5">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -478,6 +874,72 @@
         <v>3</v>
       </c>
       <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6">
+        <v>8</v>
+      </c>
+      <c r="Q6">
+        <v>8</v>
+      </c>
+      <c r="R6">
+        <v>8</v>
+      </c>
+      <c r="S6">
+        <v>8</v>
+      </c>
+      <c r="T6">
+        <v>8</v>
+      </c>
+      <c r="U6">
+        <v>8</v>
+      </c>
+      <c r="V6">
+        <v>8</v>
+      </c>
+      <c r="W6">
+        <v>8</v>
+      </c>
+      <c r="X6">
+        <v>8</v>
+      </c>
+      <c r="Y6">
+        <v>8</v>
+      </c>
+      <c r="Z6">
+        <v>8</v>
+      </c>
+      <c r="AA6">
         <v>8</v>
       </c>
     </row>
